--- a/data/data/USDetail/select_msn/sankey/sankey.xlsx
+++ b/data/data/USDetail/select_msn/sankey/sankey.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\An\Documents\GitHub\COS30045\data\data\USDetail\select_msn\sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2203C13-5F5C-4935-9DDA-42593E58F3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA460D7-9F05-4DA0-B4B7-C270BCAE1927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="24" r:id="rId1"/>
-    <sheet name="Group" sheetId="29" r:id="rId2"/>
-    <sheet name="GroupSum" sheetId="30" r:id="rId3"/>
-    <sheet name="Links" sheetId="25" r:id="rId4"/>
-    <sheet name="NodesMSN" sheetId="27" r:id="rId5"/>
-    <sheet name="LinksMSN" sheetId="28" r:id="rId6"/>
+    <sheet name="Links" sheetId="25" r:id="rId2"/>
+    <sheet name="NodesMSN" sheetId="27" r:id="rId3"/>
+    <sheet name="LinksMSN" sheetId="28" r:id="rId4"/>
+    <sheet name="Group" sheetId="29" r:id="rId5"/>
+    <sheet name="GroupSum" sheetId="30" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -1551,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD520A74-6D21-4711-8177-C48F7CF78287}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,386 +1889,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865CF0B-C2EB-4915-A8EA-926F7C386763}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DF2398-0B2C-439E-B3E0-5AB695475E69}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79355782-C8F3-47F2-8D09-9B972EF94C18}">
   <dimension ref="A1:C57"/>
   <sheetViews>
@@ -2915,7 +2535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F90BB53-D4F0-452A-8CDB-36E3574CFD00}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -3308,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8C898-99B0-44DC-9187-DCDDE756BB61}">
   <dimension ref="A1:C65"/>
   <sheetViews>
@@ -4040,4 +3660,380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865CF0B-C2EB-4915-A8EA-926F7C386763}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DF2398-0B2C-439E-B3E0-5AB695475E69}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data/USDetail/select_msn/sankey/sankey.xlsx
+++ b/data/data/USDetail/select_msn/sankey/sankey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\An\Documents\GitHub\COS30045\data\data\USDetail\select_msn\sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA460D7-9F05-4DA0-B4B7-C270BCAE1927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3088DA-3777-4B91-A5EB-3E17A080CD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="24" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="213">
   <si>
     <t>MSN</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>Total energy consumption</t>
+  </si>
+  <si>
+    <t>Total consumption</t>
+  </si>
+  <si>
+    <t>Consumption</t>
   </si>
 </sst>
 </file>
@@ -1551,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD520A74-6D21-4711-8177-C48F7CF78287}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3664,9 +3670,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865CF0B-C2EB-4915-A8EA-926F7C386763}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3809,6 +3817,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3816,9 +3835,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DF2398-0B2C-439E-B3E0-5AB695475E69}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4033,6 +4054,46 @@
         <v>189</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
